--- a/exercisesLifeContingencies/lifeInsurance/nIAx_lifeTables3.xlsx
+++ b/exercisesLifeContingencies/lifeInsurance/nIAx_lifeTables3.xlsx
@@ -483,19 +483,19 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005632314305866189</v>
+        <v>0.3229350910479403</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0305812687957567</v>
+        <v>17.75730670488243</v>
       </c>
       <c r="E2" t="n">
-        <v>30.5812687957567</v>
+        <v>2906.415819431462</v>
       </c>
       <c r="F2" t="n">
-        <v>30.5812687957567</v>
+        <v>17757.30670488243</v>
       </c>
       <c r="G2" t="n">
-        <v>81.2720975485524</v>
+        <v>20663.72252431389</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009287596704405354</v>
+        <v>0.3892355655465126</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05536807439283818</v>
+        <v>17.85303236555318</v>
       </c>
       <c r="E3" t="n">
-        <v>55.36807439283818</v>
+        <v>3503.120089918613</v>
       </c>
       <c r="F3" t="n">
-        <v>55.36807439283818</v>
+        <v>17853.03236555318</v>
       </c>
       <c r="G3" t="n">
-        <v>138.9564447324864</v>
+        <v>21356.15245547179</v>
       </c>
     </row>
     <row r="4">
@@ -533,19 +533,19 @@
         <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02171328578335873</v>
+        <v>0.4680540851181295</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1310203345386132</v>
+        <v>17.24422295904563</v>
       </c>
       <c r="E4" t="n">
-        <v>131.0203345386132</v>
+        <v>4212.486766063165</v>
       </c>
       <c r="F4" t="n">
-        <v>131.0203345386132</v>
+        <v>17244.22295904563</v>
       </c>
       <c r="G4" t="n">
-        <v>326.4399065888418</v>
+        <v>21456.70972510879</v>
       </c>
     </row>
     <row r="5">
@@ -558,19 +558,19 @@
         <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04676554519168537</v>
+        <v>0.5577562201235239</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2751855520152587</v>
+        <v>15.80743156200336</v>
       </c>
       <c r="E5" t="n">
-        <v>275.1855520152587</v>
+        <v>5019.805981111715</v>
       </c>
       <c r="F5" t="n">
-        <v>275.1855520152587</v>
+        <v>15807.43156200336</v>
       </c>
       <c r="G5" t="n">
-        <v>696.0754587404271</v>
+        <v>20827.23754311507</v>
       </c>
     </row>
     <row r="6">
@@ -583,19 +583,19 @@
         <v>60</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1038171999559389</v>
+        <v>0.657497716893974</v>
       </c>
       <c r="D6" t="n">
-        <v>0.629271613699479</v>
+        <v>13.41054662005103</v>
       </c>
       <c r="E6" t="n">
-        <v>629.2716136994791</v>
+        <v>5917.479452045765</v>
       </c>
       <c r="F6" t="n">
-        <v>629.2716136994791</v>
+        <v>13410.54662005103</v>
       </c>
       <c r="G6" t="n">
-        <v>1563.626413302929</v>
+        <v>19328.0260720968</v>
       </c>
     </row>
     <row r="7">
@@ -608,19 +608,19 @@
         <v>70</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2893549080924764</v>
+        <v>0.7645739323165114</v>
       </c>
       <c r="D7" t="n">
-        <v>1.7436053328383</v>
+        <v>10.0038426878967</v>
       </c>
       <c r="E7" t="n">
-        <v>1743.6053328383</v>
+        <v>6881.165390848602</v>
       </c>
       <c r="F7" t="n">
-        <v>1743.6053328383</v>
+        <v>10003.8426878967</v>
       </c>
       <c r="G7" t="n">
-        <v>4347.799505670588</v>
+        <v>16885.0080787453</v>
       </c>
     </row>
     <row r="8">
@@ -633,19 +633,19 @@
         <v>80</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6497317933288767</v>
+        <v>0.8601638560118121</v>
       </c>
       <c r="D8" t="n">
-        <v>3.396168389348578</v>
+        <v>6.349693883909262</v>
       </c>
       <c r="E8" t="n">
-        <v>3396.168389348578</v>
+        <v>7741.474704106309</v>
       </c>
       <c r="F8" t="n">
-        <v>3396.168389348578</v>
+        <v>6349.693883909263</v>
       </c>
       <c r="G8" t="n">
-        <v>9243.754529308468</v>
+        <v>14091.16858801557</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003933220213925726</v>
+        <v>0.2633030297853862</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02307484028560761</v>
+        <v>16.98193743353636</v>
       </c>
       <c r="E9" t="n">
-        <v>23.07484028560761</v>
+        <v>2369.727268068475</v>
       </c>
       <c r="F9" t="n">
-        <v>23.07484028560761</v>
+        <v>16981.93743353636</v>
       </c>
       <c r="G9" t="n">
-        <v>58.47382221093915</v>
+        <v>19351.66470160483</v>
       </c>
     </row>
     <row r="10">
@@ -683,19 +683,19 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0071385775310688</v>
+        <v>0.3175755584262259</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04145027709306123</v>
+        <v>17.5888826256501</v>
       </c>
       <c r="E10" t="n">
-        <v>41.45027709306123</v>
+        <v>2858.180025836033</v>
       </c>
       <c r="F10" t="n">
-        <v>41.45027709306123</v>
+        <v>17588.8826256501</v>
       </c>
       <c r="G10" t="n">
-        <v>105.6974748726804</v>
+        <v>20447.06265148614</v>
       </c>
     </row>
     <row r="11">
@@ -708,19 +708,19 @@
         <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01188857901447036</v>
+        <v>0.3814809155589957</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06787712807616837</v>
+        <v>17.74837748130697</v>
       </c>
       <c r="E11" t="n">
-        <v>67.87712807616838</v>
+        <v>3433.328240030961</v>
       </c>
       <c r="F11" t="n">
-        <v>67.87712807616838</v>
+        <v>17748.37748130697</v>
       </c>
       <c r="G11" t="n">
-        <v>174.8743392064016</v>
+        <v>21181.70572133793</v>
       </c>
     </row>
     <row r="12">
@@ -733,19 +733,19 @@
         <v>50</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02049188375399842</v>
+        <v>0.4566191823947142</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1198542272774052</v>
+        <v>17.27748516108446</v>
       </c>
       <c r="E12" t="n">
-        <v>119.8542272774052</v>
+        <v>4109.572641552428</v>
       </c>
       <c r="F12" t="n">
-        <v>119.8542272774052</v>
+        <v>17277.48516108446</v>
       </c>
       <c r="G12" t="n">
-        <v>304.281181063391</v>
+        <v>21387.05780263689</v>
       </c>
     </row>
     <row r="13">
@@ -758,19 +758,19 @@
         <v>60</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04345811887281063</v>
+        <v>0.5441774788199917</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2632430684171949</v>
+        <v>15.96664512310385</v>
       </c>
       <c r="E13" t="n">
-        <v>263.2430684171949</v>
+        <v>4897.597309379925</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2430684171949</v>
+        <v>15966.64512310385</v>
       </c>
       <c r="G13" t="n">
-        <v>654.3661382724906</v>
+        <v>20864.24243248377</v>
       </c>
     </row>
     <row r="14">
@@ -783,19 +783,19 @@
         <v>70</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1065197571498453</v>
+        <v>0.6418742833936536</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6294291638083636</v>
+        <v>13.71151524467597</v>
       </c>
       <c r="E14" t="n">
-        <v>629.4291638083636</v>
+        <v>5776.868550542882</v>
       </c>
       <c r="F14" t="n">
-        <v>629.4291638083636</v>
+        <v>13711.51524467597</v>
       </c>
       <c r="G14" t="n">
-        <v>1588.106978156971</v>
+        <v>19488.38379521885</v>
       </c>
     </row>
     <row r="15">
@@ -808,19 +808,19 @@
         <v>80</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2649505472927327</v>
+        <v>0.7415273408620626</v>
       </c>
       <c r="D15" t="n">
-        <v>1.58017035438735</v>
+        <v>10.70491429678136</v>
       </c>
       <c r="E15" t="n">
-        <v>1580.17035438735</v>
+        <v>6673.746067758563</v>
       </c>
       <c r="F15" t="n">
-        <v>1580.17035438735</v>
+        <v>10704.91429678136</v>
       </c>
       <c r="G15" t="n">
-        <v>3964.725280021944</v>
+        <v>17378.66036453992</v>
       </c>
     </row>
     <row r="16">
@@ -833,19 +833,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01159828440182072</v>
+        <v>0.3189334484269624</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06185623458069895</v>
+        <v>17.37641096669558</v>
       </c>
       <c r="E16" t="n">
-        <v>61.85623458069895</v>
+        <v>2870.401035842662</v>
       </c>
       <c r="F16" t="n">
-        <v>61.85623458069895</v>
+        <v>17376.41096669558</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2407941970854</v>
+        <v>20246.81200253824</v>
       </c>
     </row>
     <row r="17">
@@ -858,19 +858,19 @@
         <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01298671440788222</v>
+        <v>0.3795401182208366</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07268068104384828</v>
+        <v>17.58701423651813</v>
       </c>
       <c r="E17" t="n">
-        <v>72.68068104384828</v>
+        <v>3415.861063987529</v>
       </c>
       <c r="F17" t="n">
-        <v>72.68068104384828</v>
+        <v>17587.01423651813</v>
       </c>
       <c r="G17" t="n">
-        <v>189.5611107147882</v>
+        <v>21002.87530050566</v>
       </c>
     </row>
     <row r="18">
@@ -883,19 +883,19 @@
         <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02368341532708226</v>
+        <v>0.4534159030933587</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1419144094544465</v>
+        <v>17.13056235352797</v>
       </c>
       <c r="E18" t="n">
-        <v>141.9144094544465</v>
+        <v>4080.743127840228</v>
       </c>
       <c r="F18" t="n">
-        <v>141.9144094544465</v>
+        <v>17130.56235352797</v>
       </c>
       <c r="G18" t="n">
-        <v>355.0651473981868</v>
+        <v>21211.3054813682</v>
       </c>
     </row>
     <row r="19">
@@ -908,19 +908,19 @@
         <v>50</v>
       </c>
       <c r="C19" t="n">
-        <v>0.053460115954111</v>
+        <v>0.5382172297018603</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3175035462632851</v>
+        <v>15.89521140828897</v>
       </c>
       <c r="E19" t="n">
-        <v>317.5035462632852</v>
+        <v>4843.955067316742</v>
       </c>
       <c r="F19" t="n">
-        <v>317.5035462632852</v>
+        <v>15895.21140828897</v>
       </c>
       <c r="G19" t="n">
-        <v>798.6445898502841</v>
+        <v>20739.16647560571</v>
       </c>
     </row>
     <row r="20">
@@ -933,19 +933,19 @@
         <v>60</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1127750260642677</v>
+        <v>0.6287865630241447</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6569118368007386</v>
+        <v>13.91823987820568</v>
       </c>
       <c r="E20" t="n">
-        <v>656.9118368007386</v>
+        <v>5659.079067217303</v>
       </c>
       <c r="F20" t="n">
-        <v>656.9118368007386</v>
+        <v>13918.23987820568</v>
       </c>
       <c r="G20" t="n">
-        <v>1671.887071379148</v>
+        <v>19577.31894542299</v>
       </c>
     </row>
     <row r="21">
@@ -958,19 +958,19 @@
         <v>70</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2412038108276738</v>
+        <v>0.7203274626576385</v>
       </c>
       <c r="D21" t="n">
-        <v>1.407313510899371</v>
+        <v>11.30890600375432</v>
       </c>
       <c r="E21" t="n">
-        <v>1407.313510899371</v>
+        <v>6482.947163918746</v>
       </c>
       <c r="F21" t="n">
-        <v>1407.313510899371</v>
+        <v>11308.90600375432</v>
       </c>
       <c r="G21" t="n">
-        <v>3578.147808348435</v>
+        <v>17791.85316767307</v>
       </c>
     </row>
     <row r="22">
@@ -983,19 +983,19 @@
         <v>80</v>
       </c>
       <c r="C22" t="n">
-        <v>0.43907580249763</v>
+        <v>0.801355055737256</v>
       </c>
       <c r="D22" t="n">
-        <v>2.322390660153755</v>
+        <v>8.547291667163043</v>
       </c>
       <c r="E22" t="n">
-        <v>2322.390660153755</v>
+        <v>7212.195501635304</v>
       </c>
       <c r="F22" t="n">
-        <v>2322.390660153755</v>
+        <v>8547.291667163043</v>
       </c>
       <c r="G22" t="n">
-        <v>6274.072882632425</v>
+        <v>15759.48716879835</v>
       </c>
     </row>
   </sheetData>

--- a/exercisesLifeContingencies/lifeInsurance/nIAx_lifeTables3.xlsx
+++ b/exercisesLifeContingencies/lifeInsurance/nIAx_lifeTables3.xlsx
@@ -483,19 +483,19 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3229350910479403</v>
+        <v>0.005632314305866189</v>
       </c>
       <c r="D2" t="n">
-        <v>17.75730670488243</v>
+        <v>0.0305812687957567</v>
       </c>
       <c r="E2" t="n">
-        <v>2906.415819431462</v>
+        <v>50.6908287527957</v>
       </c>
       <c r="F2" t="n">
-        <v>17757.30670488243</v>
+        <v>30.5812687957567</v>
       </c>
       <c r="G2" t="n">
-        <v>20663.72252431389</v>
+        <v>81.2720975485524</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3892355655465126</v>
+        <v>0.009287596704405354</v>
       </c>
       <c r="D3" t="n">
-        <v>17.85303236555318</v>
+        <v>0.05536807439283818</v>
       </c>
       <c r="E3" t="n">
-        <v>3503.120089918613</v>
+        <v>83.58837033964818</v>
       </c>
       <c r="F3" t="n">
-        <v>17853.03236555318</v>
+        <v>55.36807439283818</v>
       </c>
       <c r="G3" t="n">
-        <v>21356.15245547179</v>
+        <v>138.9564447324864</v>
       </c>
     </row>
     <row r="4">
@@ -533,19 +533,19 @@
         <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4680540851181295</v>
+        <v>0.02171328578335873</v>
       </c>
       <c r="D4" t="n">
-        <v>17.24422295904563</v>
+        <v>0.1310203345386132</v>
       </c>
       <c r="E4" t="n">
-        <v>4212.486766063165</v>
+        <v>195.4195720502286</v>
       </c>
       <c r="F4" t="n">
-        <v>17244.22295904563</v>
+        <v>131.0203345386132</v>
       </c>
       <c r="G4" t="n">
-        <v>21456.70972510879</v>
+        <v>326.4399065888418</v>
       </c>
     </row>
     <row r="5">
@@ -558,19 +558,19 @@
         <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5577562201235239</v>
+        <v>0.04676554519168537</v>
       </c>
       <c r="D5" t="n">
-        <v>15.80743156200336</v>
+        <v>0.2751855520152587</v>
       </c>
       <c r="E5" t="n">
-        <v>5019.805981111715</v>
+        <v>420.8899067251684</v>
       </c>
       <c r="F5" t="n">
-        <v>15807.43156200336</v>
+        <v>275.1855520152587</v>
       </c>
       <c r="G5" t="n">
-        <v>20827.23754311507</v>
+        <v>696.0754587404271</v>
       </c>
     </row>
     <row r="6">
@@ -583,19 +583,19 @@
         <v>60</v>
       </c>
       <c r="C6" t="n">
-        <v>0.657497716893974</v>
+        <v>0.1038171999559389</v>
       </c>
       <c r="D6" t="n">
-        <v>13.41054662005103</v>
+        <v>0.629271613699479</v>
       </c>
       <c r="E6" t="n">
-        <v>5917.479452045765</v>
+        <v>934.3547996034498</v>
       </c>
       <c r="F6" t="n">
-        <v>13410.54662005103</v>
+        <v>629.2716136994791</v>
       </c>
       <c r="G6" t="n">
-        <v>19328.0260720968</v>
+        <v>1563.626413302929</v>
       </c>
     </row>
     <row r="7">
@@ -608,19 +608,19 @@
         <v>70</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7645739323165114</v>
+        <v>0.2893549080924764</v>
       </c>
       <c r="D7" t="n">
-        <v>10.0038426878967</v>
+        <v>1.7436053328383</v>
       </c>
       <c r="E7" t="n">
-        <v>6881.165390848602</v>
+        <v>2604.194172832288</v>
       </c>
       <c r="F7" t="n">
-        <v>10003.8426878967</v>
+        <v>1743.6053328383</v>
       </c>
       <c r="G7" t="n">
-        <v>16885.0080787453</v>
+        <v>4347.799505670588</v>
       </c>
     </row>
     <row r="8">
@@ -633,19 +633,19 @@
         <v>80</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8601638560118121</v>
+        <v>0.6497317933288767</v>
       </c>
       <c r="D8" t="n">
-        <v>6.349693883909262</v>
+        <v>3.396168389348578</v>
       </c>
       <c r="E8" t="n">
-        <v>7741.474704106309</v>
+        <v>5847.58613995989</v>
       </c>
       <c r="F8" t="n">
-        <v>6349.693883909263</v>
+        <v>3396.168389348578</v>
       </c>
       <c r="G8" t="n">
-        <v>14091.16858801557</v>
+        <v>9243.754529308468</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2633030297853862</v>
+        <v>0.003933220213925726</v>
       </c>
       <c r="D9" t="n">
-        <v>16.98193743353636</v>
+        <v>0.02307484028560761</v>
       </c>
       <c r="E9" t="n">
-        <v>2369.727268068475</v>
+        <v>35.39898192533154</v>
       </c>
       <c r="F9" t="n">
-        <v>16981.93743353636</v>
+        <v>23.07484028560761</v>
       </c>
       <c r="G9" t="n">
-        <v>19351.66470160483</v>
+        <v>58.47382221093915</v>
       </c>
     </row>
     <row r="10">
@@ -683,19 +683,19 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3175755584262259</v>
+        <v>0.0071385775310688</v>
       </c>
       <c r="D10" t="n">
-        <v>17.5888826256501</v>
+        <v>0.04145027709306123</v>
       </c>
       <c r="E10" t="n">
-        <v>2858.180025836033</v>
+        <v>64.2471977796192</v>
       </c>
       <c r="F10" t="n">
-        <v>17588.8826256501</v>
+        <v>41.45027709306123</v>
       </c>
       <c r="G10" t="n">
-        <v>20447.06265148614</v>
+        <v>105.6974748726804</v>
       </c>
     </row>
     <row r="11">
@@ -708,19 +708,19 @@
         <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3814809155589957</v>
+        <v>0.01188857901447036</v>
       </c>
       <c r="D11" t="n">
-        <v>17.74837748130697</v>
+        <v>0.06787712807616837</v>
       </c>
       <c r="E11" t="n">
-        <v>3433.328240030961</v>
+        <v>106.9972111302332</v>
       </c>
       <c r="F11" t="n">
-        <v>17748.37748130697</v>
+        <v>67.87712807616838</v>
       </c>
       <c r="G11" t="n">
-        <v>21181.70572133793</v>
+        <v>174.8743392064016</v>
       </c>
     </row>
     <row r="12">
@@ -733,19 +733,19 @@
         <v>50</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4566191823947142</v>
+        <v>0.02049188375399842</v>
       </c>
       <c r="D12" t="n">
-        <v>17.27748516108446</v>
+        <v>0.1198542272774052</v>
       </c>
       <c r="E12" t="n">
-        <v>4109.572641552428</v>
+        <v>184.4269537859858</v>
       </c>
       <c r="F12" t="n">
-        <v>17277.48516108446</v>
+        <v>119.8542272774052</v>
       </c>
       <c r="G12" t="n">
-        <v>21387.05780263689</v>
+        <v>304.281181063391</v>
       </c>
     </row>
     <row r="13">
@@ -758,19 +758,19 @@
         <v>60</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5441774788199917</v>
+        <v>0.04345811887281063</v>
       </c>
       <c r="D13" t="n">
-        <v>15.96664512310385</v>
+        <v>0.2632430684171949</v>
       </c>
       <c r="E13" t="n">
-        <v>4897.597309379925</v>
+        <v>391.1230698552957</v>
       </c>
       <c r="F13" t="n">
-        <v>15966.64512310385</v>
+        <v>263.2430684171949</v>
       </c>
       <c r="G13" t="n">
-        <v>20864.24243248377</v>
+        <v>654.3661382724906</v>
       </c>
     </row>
     <row r="14">
@@ -783,19 +783,19 @@
         <v>70</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6418742833936536</v>
+        <v>0.1065197571498453</v>
       </c>
       <c r="D14" t="n">
-        <v>13.71151524467597</v>
+        <v>0.6294291638083636</v>
       </c>
       <c r="E14" t="n">
-        <v>5776.868550542882</v>
+        <v>958.6778143486074</v>
       </c>
       <c r="F14" t="n">
-        <v>13711.51524467597</v>
+        <v>629.4291638083636</v>
       </c>
       <c r="G14" t="n">
-        <v>19488.38379521885</v>
+        <v>1588.106978156971</v>
       </c>
     </row>
     <row r="15">
@@ -808,19 +808,19 @@
         <v>80</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7415273408620626</v>
+        <v>0.2649505472927327</v>
       </c>
       <c r="D15" t="n">
-        <v>10.70491429678136</v>
+        <v>1.58017035438735</v>
       </c>
       <c r="E15" t="n">
-        <v>6673.746067758563</v>
+        <v>2384.554925634594</v>
       </c>
       <c r="F15" t="n">
-        <v>10704.91429678136</v>
+        <v>1580.17035438735</v>
       </c>
       <c r="G15" t="n">
-        <v>17378.66036453992</v>
+        <v>3964.725280021944</v>
       </c>
     </row>
     <row r="16">
@@ -833,19 +833,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3189334484269624</v>
+        <v>0.01159828440182072</v>
       </c>
       <c r="D16" t="n">
-        <v>17.37641096669558</v>
+        <v>0.06185623458069895</v>
       </c>
       <c r="E16" t="n">
-        <v>2870.401035842662</v>
+        <v>104.3845596163865</v>
       </c>
       <c r="F16" t="n">
-        <v>17376.41096669558</v>
+        <v>61.85623458069895</v>
       </c>
       <c r="G16" t="n">
-        <v>20246.81200253824</v>
+        <v>166.2407941970854</v>
       </c>
     </row>
     <row r="17">
@@ -858,19 +858,19 @@
         <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3795401182208366</v>
+        <v>0.01298671440788222</v>
       </c>
       <c r="D17" t="n">
-        <v>17.58701423651813</v>
+        <v>0.07268068104384828</v>
       </c>
       <c r="E17" t="n">
-        <v>3415.861063987529</v>
+        <v>116.88042967094</v>
       </c>
       <c r="F17" t="n">
-        <v>17587.01423651813</v>
+        <v>72.68068104384828</v>
       </c>
       <c r="G17" t="n">
-        <v>21002.87530050566</v>
+        <v>189.5611107147882</v>
       </c>
     </row>
     <row r="18">
@@ -883,19 +883,19 @@
         <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4534159030933587</v>
+        <v>0.02368341532708226</v>
       </c>
       <c r="D18" t="n">
-        <v>17.13056235352797</v>
+        <v>0.1419144094544465</v>
       </c>
       <c r="E18" t="n">
-        <v>4080.743127840228</v>
+        <v>213.1507379437403</v>
       </c>
       <c r="F18" t="n">
-        <v>17130.56235352797</v>
+        <v>141.9144094544465</v>
       </c>
       <c r="G18" t="n">
-        <v>21211.3054813682</v>
+        <v>355.0651473981868</v>
       </c>
     </row>
     <row r="19">
@@ -908,19 +908,19 @@
         <v>50</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5382172297018603</v>
+        <v>0.053460115954111</v>
       </c>
       <c r="D19" t="n">
-        <v>15.89521140828897</v>
+        <v>0.3175035462632851</v>
       </c>
       <c r="E19" t="n">
-        <v>4843.955067316742</v>
+        <v>481.141043586999</v>
       </c>
       <c r="F19" t="n">
-        <v>15895.21140828897</v>
+        <v>317.5035462632852</v>
       </c>
       <c r="G19" t="n">
-        <v>20739.16647560571</v>
+        <v>798.6445898502841</v>
       </c>
     </row>
     <row r="20">
@@ -933,19 +933,19 @@
         <v>60</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6287865630241447</v>
+        <v>0.1127750260642677</v>
       </c>
       <c r="D20" t="n">
-        <v>13.91823987820568</v>
+        <v>0.6569118368007386</v>
       </c>
       <c r="E20" t="n">
-        <v>5659.079067217303</v>
+        <v>1014.975234578409</v>
       </c>
       <c r="F20" t="n">
-        <v>13918.23987820568</v>
+        <v>656.9118368007386</v>
       </c>
       <c r="G20" t="n">
-        <v>19577.31894542299</v>
+        <v>1671.887071379148</v>
       </c>
     </row>
     <row r="21">
@@ -958,19 +958,19 @@
         <v>70</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7203274626576385</v>
+        <v>0.2412038108276738</v>
       </c>
       <c r="D21" t="n">
-        <v>11.30890600375432</v>
+        <v>1.407313510899371</v>
       </c>
       <c r="E21" t="n">
-        <v>6482.947163918746</v>
+        <v>2170.834297449064</v>
       </c>
       <c r="F21" t="n">
-        <v>11308.90600375432</v>
+        <v>1407.313510899371</v>
       </c>
       <c r="G21" t="n">
-        <v>17791.85316767307</v>
+        <v>3578.147808348435</v>
       </c>
     </row>
     <row r="22">
@@ -983,19 +983,19 @@
         <v>80</v>
       </c>
       <c r="C22" t="n">
-        <v>0.801355055737256</v>
+        <v>0.43907580249763</v>
       </c>
       <c r="D22" t="n">
-        <v>8.547291667163043</v>
+        <v>2.322390660153755</v>
       </c>
       <c r="E22" t="n">
-        <v>7212.195501635304</v>
+        <v>3951.68222247867</v>
       </c>
       <c r="F22" t="n">
-        <v>8547.291667163043</v>
+        <v>2322.390660153755</v>
       </c>
       <c r="G22" t="n">
-        <v>15759.48716879835</v>
+        <v>6274.072882632425</v>
       </c>
     </row>
   </sheetData>
